--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject25.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject25.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,13 +131,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.83146798454941473</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" s="0">
         <v>0</v>
@@ -227,7 +227,7 @@
         <v>0</v>
       </c>
       <c r="AH1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI1" s="0">
         <v>0</v>
@@ -254,7 +254,7 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="0">
-        <v>0</v>
+        <v>0.98016649247122212</v>
       </c>
       <c r="AR1" s="0">
         <v>0</v>
@@ -281,7 +281,7 @@
         <v>0</v>
       </c>
       <c r="AZ1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.96072989266345266</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.82465261496778108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.7408785633709104</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.69198542796554074</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0</v>
+        <v>0.58687651985480571</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.79213587400703744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.70336866799612374</v>
       </c>
       <c r="E3" s="0">
-        <v>0</v>
+        <v>0.68927436782034679</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="BH3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="0">
         <v>0</v>
@@ -741,18 +741,18 @@
         <v>0</v>
       </c>
       <c r="BP3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.99329245608187644</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.69675281146549151</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -761,13 +761,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.89372896605978458</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0</v>
+        <v>0.93703197114792169</v>
       </c>
       <c r="I4" s="0">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="AT4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0</v>
+        <v>0.75572840206362124</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.92588887231479067</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.93119179370416882</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="0">
         <v>0</v>
@@ -1167,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.64560120162265866</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.84243366198056235</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0</v>
+        <v>0.76371223113746711</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="0">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="BB6" s="0">
-        <v>0</v>
+        <v>0.80088419897126584</v>
       </c>
       <c r="BC6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.87623363803462984</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.75639129319060605</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="AQ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="0">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="0">
-        <v>0</v>
+        <v>0.87220953507002563</v>
       </c>
       <c r="BP7" s="0">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0</v>
+        <v>0.55004263222115779</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.95073687932160877</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="0">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="BK8" s="0">
-        <v>0</v>
+        <v>0.95015413194889353</v>
       </c>
       <c r="BL8" s="0">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.58734233532630697</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.81852183033768533</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.51771534242812978</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.9208116296062101</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="0">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0</v>
+        <v>0.50177230448731858</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="0">
         <v>0</v>
@@ -2006,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.59856746605320188</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.99279135749142333</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.94566248224777028</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>0</v>
+        <v>0.70134481237661517</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0</v>
+        <v>0.98720209072554044</v>
       </c>
       <c r="AC10" s="0">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="0">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="BE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.55433019138120321</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.75582766658788769</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.58435041685270339</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.9985217738625628</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AW11" s="0">
-        <v>0</v>
+        <v>0.86605297068043374</v>
       </c>
       <c r="AX11" s="0">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="BI11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.91350245947550746</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.75220639387077282</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.99282193169601052</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.97413334285961817</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.94444810619523767</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.69362027595672615</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.73557133295618882</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0</v>
+        <v>0.74019158970104937</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.90415187276963538</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.74462682392257362</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.53745351768212424</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.82964299002182185</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.99472854683442524</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.54128338954154098</v>
       </c>
       <c r="Q15" s="0">
-        <v>0</v>
+        <v>0.73619491653324842</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="BG15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="0">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BN15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO15" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.50552397234912272</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.63299781261019128</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.83502276006322251</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>0</v>
+        <v>0.79793215368072756</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
+        <v>0.99510772752649657</v>
       </c>
       <c r="C17" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0</v>
+        <v>0.57846703784738218</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.98457886344474732</v>
       </c>
       <c r="T17" s="0">
-        <v>0</v>
+        <v>0.56508302421584355</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="0">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="BK17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="0">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="0">
-        <v>0</v>
+        <v>0.73578278867900671</v>
       </c>
       <c r="K18" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.95540307662753765</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.54555926468795879</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="0">
-        <v>0</v>
+        <v>0.87234217228094701</v>
       </c>
       <c r="AN18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.82565638902785699</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.98659677140834012</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BL19" s="0">
-        <v>0</v>
+        <v>0.8214058237552222</v>
       </c>
       <c r="BM19" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4090,22 +4090,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.8685440163777679</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.56634626825487766</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.62930054687463888</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.92636827547662204</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.87336757425676159</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4272,7 +4272,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.71252846801921854</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.54229364463264562</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.9537193949674414</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.99337008750190248</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.90038442859100454</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.91495419453548033</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.72158833437320058</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.8867188860091364</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.59310953830657143</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.56100899163904261</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.57568763633867248</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>0</v>
+        <v>0.64384090975618402</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.96742798360533877</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.96461100112999643</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0.66177356581122015</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.8540807927217301</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="0">
         <v>0</v>
@@ -5138,16 +5138,16 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.69077851834298576</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0.5612549879223292</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.68770667677222896</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="AC25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="0">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="AU25" s="0">
-        <v>0</v>
+        <v>0.95556923059987908</v>
       </c>
       <c r="AV25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0</v>
+        <v>0.69233731172570723</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="0">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="0">
-        <v>0</v>
+        <v>0.50240600675095748</v>
       </c>
       <c r="J26" s="0">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="0">
-        <v>0</v>
+        <v>0.93211295066776012</v>
       </c>
       <c r="N26" s="0">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>0</v>
+        <v>0.70446323312316883</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
@@ -5347,16 +5347,16 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.87541266566420828</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.5807809051542816</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.7019976434612587</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5559,16 +5559,16 @@
         <v>0</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.86150724643210241</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.98342669529969595</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.9256621774951399</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="0">
-        <v>0</v>
+        <v>0.74568890065259685</v>
       </c>
       <c r="BN27" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0</v>
+        <v>0.81064628540220729</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5768,16 +5768,16 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.83664548772977687</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.8534136809151005</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5968,25 +5968,25 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="0">
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.62146280255630726</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.541446380169189</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.90219079132510493</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.70649215531332221</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.57924642950571981</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.94496078491304447</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.51248699727762348</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="AV30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="0">
         <v>0</v>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6392,22 +6392,22 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.60123643327595466</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.62402828462119464</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.50604264593335935</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.99215396813654744</v>
       </c>
       <c r="AH31" s="0">
-        <v>0</v>
+        <v>0.95727494892243714</v>
       </c>
       <c r="AI31" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.74787515099588764</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.98570041647795748</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.84702399743451817</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0</v>
+        <v>0.94165268463052143</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.62881768458344656</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.65162227778731041</v>
       </c>
       <c r="AF33" s="0">
-        <v>0</v>
+        <v>0.6251174235500907</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.7086346627077651</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="AP33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="0">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="AW33" s="0">
-        <v>0</v>
+        <v>0.97008242590796989</v>
       </c>
       <c r="AX33" s="0">
         <v>0</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="0">
         <v>0</v>
@@ -7016,22 +7016,22 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0</v>
+        <v>0.91089040726441706</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.75683670353915122</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.81503750307130685</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="0">
         <v>0</v>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="BN34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.539529444759834</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.60022863328557119</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.69498014643330053</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.60135675391450549</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.62630309718303878</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.91001631808605443</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="BL36" s="0">
-        <v>0</v>
+        <v>0.66847128844484516</v>
       </c>
       <c r="BM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.59629918611546939</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.93596764179566716</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.6790138571989901</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7670,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0">
-        <v>0</v>
+        <v>0.75361224509466529</v>
       </c>
       <c r="AR37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.99308581130262841</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.64205008801762231</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.67453149950223756</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="0">
-        <v>0</v>
+        <v>0.76845118641462717</v>
       </c>
       <c r="BO38" s="0">
         <v>0</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="0">
-        <v>0</v>
+        <v>0.75788405562175254</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0">
-        <v>0</v>
+        <v>0.9856373485183938</v>
       </c>
       <c r="X39" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.85129973593252473</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="BN39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO39" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.82406141285125445</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.95432894227415821</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.80159999093089684</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="0">
-        <v>0</v>
+        <v>0.54071153053718102</v>
       </c>
       <c r="BL40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.50554031107438546</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.97451792750369259</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.94501327038008354</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8670,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.71947100649082929</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.8773164838913603</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0</v>
+        <v>0.82119417521164362</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>0</v>
+        <v>0.83277889073136113</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0</v>
+        <v>0.88683978073756842</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
@@ -8798,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="0">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="0">
-        <v>0</v>
+        <v>0.9569844502889514</v>
       </c>
       <c r="AL43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.7659875356084942</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8909,10 +8909,10 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.80162440766931553</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0</v>
+        <v>0.83199825845872044</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.74160058258659545</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.75033978216064856</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.65369596296537791</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.57997463219629908</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.88717357047188661</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.5620778477982491</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9357,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="BP45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="0">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="0">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.88330191370913202</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.60295095472420823</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.51255708624979346</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.85092807036025464</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46" s="0">
         <v>0</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0</v>
+        <v>0.60356196103726067</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.62719151064843837</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.82060695325882316</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.98569579890501147</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9772,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="BE47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF47" s="0">
         <v>0</v>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.67103845728573353</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.60573562455083296</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.91471381502296212</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.68074859181179881</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>0</v>
+        <v>0.86442214756197344</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="0">
-        <v>0</v>
+        <v>0.90178719657680206</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.82636828970228426</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.75888873299958814</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.90942508791278731</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.82825421481567163</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.50579937785464157</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>0</v>
+        <v>0.79140071613732343</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" s="0">
         <v>0</v>
       </c>
       <c r="H51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="0">
         <v>0</v>
@@ -10572,25 +10572,25 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.87060790768248963</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.66492301174304669</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.85397072882578828</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0</v>
+        <v>0.67852218492925342</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10634,7 +10634,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.85868966935829583</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0</v>
+        <v>0.75923846913786019</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.66641464837423747</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.64201236521239002</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0</v>
+        <v>0.55779128455211935</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.79118611179614695</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0.80063866302642395</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>0</v>
+        <v>0.70790587320848053</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.9976905682725028</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.75769466180636602</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.67331970540813624</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.68553638067074951</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO54" s="0">
         <v>0</v>
@@ -11267,7 +11267,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="0">
         <v>0</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="0">
-        <v>0</v>
+        <v>0.94857935525096448</v>
       </c>
       <c r="Z55" s="0">
         <v>0</v>
@@ -11402,25 +11402,25 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>0</v>
+        <v>0.69743885197265643</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0.62887915229024238</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.93051572118622528</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.61461614631784012</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.69532174801690227</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="BO55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP55" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>0</v>
+        <v>0.65862090116587224</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.78067871382143028</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.84801461119113564</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.95724201417119315</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.55386929165470755</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="0">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="AU57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.89334517607637332</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.65722180800904606</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.58174655614579862</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.50237607893936342</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.63219420112886293</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.62885629241910901</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.77850095338552661</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.73427188967914447</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.78198043261685057</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.96017874542896609</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.66200872590379101</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.61050769133654859</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12288,13 +12288,13 @@
         <v>0</v>
       </c>
       <c r="C60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
       </c>
       <c r="E60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="0">
         <v>0</v>
@@ -12306,7 +12306,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.53181673114684602</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.93912902959109967</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.557152215204892</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.80214680186817433</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>0</v>
+        <v>0.80617499783607771</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.76026961755130085</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.93828911450507335</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.53986133552743576</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.94580235662413548</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.73624020049510597</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.74837221168457302</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.62456317894659463</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0</v>
+        <v>0.55003761266804041</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -12948,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="0">
         <v>0</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="AN63" s="0">
-        <v>0</v>
+        <v>0.60338539904447352</v>
       </c>
       <c r="AO63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.7691536287592533</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.83133356481944876</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>0</v>
+        <v>0.71800019286628713</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0</v>
+        <v>0.51062658403074035</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.6580045153471592</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.65565306474412632</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.58255247068936811</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.80180223012694252</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0</v>
+        <v>0.5779434163454531</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13501,16 +13501,16 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.53410632995814655</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.79794133375091758</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13560,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="AH66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="0">
         <v>0</v>
@@ -13629,10 +13629,10 @@
         <v>0</v>
       </c>
       <c r="AL66" s="0">
-        <v>0</v>
+        <v>0.76196679270757295</v>
       </c>
       <c r="AM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="0">
         <v>0</v>
@@ -13677,7 +13677,7 @@
         <v>0</v>
       </c>
       <c r="BB66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.82864753400048019</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.51226686220541506</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.72613656082906719</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.74071709824931076</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13742,10 +13742,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="0">
-        <v>0</v>
+        <v>0.97330027491135751</v>
       </c>
       <c r="H67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="0">
         <v>0</v>
@@ -13886,7 +13886,7 @@
         <v>0</v>
       </c>
       <c r="BC67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD67" s="0">
         <v>0</v>
@@ -13916,27 +13916,27 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.88191663771898055</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.5248892088417938</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.88107633730149271</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.77708840239311727</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.61928782663267867</v>
       </c>
       <c r="C68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.97506119232225896</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.6807032390587503</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject25.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject25.xlsx
@@ -334,7 +334,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.7408785633709104</v>
+        <v>0.83146798454941473</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0.69198542796554074</v>
+        <v>0.99329245608187644</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.58687651985480571</v>
+        <v>0.99510772752649657</v>
       </c>
       <c r="R2" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0.70336866799612374</v>
       </c>
       <c r="E3" s="0">
-        <v>0.68927436782034679</v>
+        <v>0.75572840206362124</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.99329245608187644</v>
       </c>
       <c r="C4" s="0">
-        <v>0.69675281146549151</v>
+        <v>0.70336866799612374</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.64560120162265866</v>
+        <v>0.89372896605978458</v>
       </c>
       <c r="E6" s="0">
-        <v>0.84243366198056235</v>
+        <v>0.92588887231479067</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.87623363803462984</v>
+        <v>0.93119179370416882</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="BO7" s="0">
-        <v>0.87220953507002563</v>
+        <v>0.97330027491135751</v>
       </c>
       <c r="BP7" s="0">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="0">
-        <v>0.55004263222115779</v>
+        <v>0.93703197114792169</v>
       </c>
       <c r="E8" s="0">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.58734233532630697</v>
+        <v>0.75639129319060605</v>
       </c>
       <c r="H9" s="0">
-        <v>0.81852183033768533</v>
+        <v>0.95073687932160877</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.51771534242812978</v>
+        <v>0.59856746605320188</v>
       </c>
       <c r="K9" s="0">
         <v>0.9208116296062101</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="0">
-        <v>0.50177230448731858</v>
+        <v>0.50240600675095748</v>
       </c>
       <c r="AA9" s="0">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="0">
-        <v>0.70134481237661517</v>
+        <v>0.73578278867900671</v>
       </c>
       <c r="S10" s="0">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.55433019138120321</v>
+        <v>0.9208116296062101</v>
       </c>
       <c r="J11" s="0">
-        <v>0.75582766658788769</v>
+        <v>0.99279135749142333</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.58435041685270339</v>
+        <v>0.75220639387077282</v>
       </c>
       <c r="M11" s="0">
         <v>0.9985217738625628</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.91350245947550746</v>
+        <v>0.94566248224777028</v>
       </c>
       <c r="K12" s="0">
         <v>0.75220639387077282</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.94444810619523767</v>
+        <v>0.9985217738625628</v>
       </c>
       <c r="L13" s="0">
-        <v>0.69362027595672615</v>
+        <v>0.99282193169601052</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.73557133295618882</v>
+        <v>0.82964299002182185</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.74019158970104937</v>
+        <v>0.93211295066776012</v>
       </c>
       <c r="AA13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.90415187276963538</v>
+        <v>0.97413334285961817</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.74462682392257362</v>
+        <v>0.99472854683442524</v>
       </c>
       <c r="P14" s="0">
         <v>0.53745351768212424</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0.54128338954154098</v>
+        <v>0.63299781261019128</v>
       </c>
       <c r="Q15" s="0">
         <v>0.73619491653324842</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.50552397234912272</v>
+        <v>0.53745351768212424</v>
       </c>
       <c r="O16" s="0">
         <v>0.63299781261019128</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0.83502276006322251</v>
+        <v>0.95540307662753765</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.57846703784738218</v>
+        <v>0.73619491653324842</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0.98457886344474732</v>
       </c>
       <c r="T17" s="0">
-        <v>0.56508302421584355</v>
+        <v>0.8685440163777679</v>
       </c>
       <c r="U17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.54555926468795879</v>
+        <v>0.56634626825487766</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.82565638902785699</v>
+        <v>0.98457886344474732</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0.56634626825487766</v>
       </c>
       <c r="S20" s="0">
-        <v>0.62930054687463888</v>
+        <v>0.98659677140834012</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0.92636827547662204</v>
       </c>
       <c r="V20" s="0">
-        <v>0.87336757425676159</v>
+        <v>0.99337008750190248</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4305,13 +4305,13 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>0.71252846801921854</v>
+        <v>0.92636827547662204</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0.54229364463264562</v>
+        <v>0.90038442859100454</v>
       </c>
       <c r="W21" s="0">
         <v>0.9537193949674414</v>
@@ -4523,7 +4523,7 @@
         <v>0.91495419453548033</v>
       </c>
       <c r="X22" s="0">
-        <v>0.72158833437320058</v>
+        <v>0.96742798360533877</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.8867188860091364</v>
+        <v>0.9537193949674414</v>
       </c>
       <c r="V23" s="0">
-        <v>0.59310953830657143</v>
+        <v>0.91495419453548033</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.56100899163904261</v>
+        <v>0.96461100112999643</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.57568763633867248</v>
+        <v>0.69077851834298576</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AM23" s="0">
-        <v>0.64384090975618402</v>
+        <v>0.9856373485183938</v>
       </c>
       <c r="AN23" s="0">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         <v>0.66177356581122015</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.8540807927217301</v>
+        <v>0.87541266566420828</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0.69077851834298576</v>
       </c>
       <c r="X25" s="0">
-        <v>0.5612549879223292</v>
+        <v>0.66177356581122015</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="BC25" s="0">
-        <v>0.69233731172570723</v>
+        <v>0.94857935525096448</v>
       </c>
       <c r="BD25" s="0">
         <v>0</v>
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>0.70446323312316883</v>
+        <v>0.79793215368072756</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
@@ -5350,13 +5350,13 @@
         <v>0.87541266566420828</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.5807809051542816</v>
+        <v>0.68770667677222896</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.7019976434612587</v>
+        <v>0.86150724643210241</v>
       </c>
       <c r="AB26" s="0">
         <v>0</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="0">
-        <v>0.81064628540220729</v>
+        <v>0.98720209072554044</v>
       </c>
       <c r="K28" s="0">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.83664548772977687</v>
+        <v>0.98342669529969595</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.62146280255630726</v>
+        <v>0.9256621774951399</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.541446380169189</v>
+        <v>0.8534136809151005</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0.57924642950571981</v>
+        <v>0.90219079132510493</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0.94496078491304447</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.51248699727762348</v>
+        <v>0.98570041647795748</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.60123643327595466</v>
+        <v>0.70649215531332221</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.62402828462119464</v>
+        <v>0.94496078491304447</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0.50604264593335935</v>
+        <v>0.84702399743451817</v>
       </c>
       <c r="AG31" s="0">
         <v>0.99215396813654744</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0.74787515099588764</v>
+        <v>0.76371223113746711</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0.94165268463052143</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.62881768458344656</v>
+        <v>0.75683670353915122</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.65162227778731041</v>
+        <v>0.99215396813654744</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.6251174235500907</v>
+        <v>0.94165268463052143</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="0">
-        <v>0.91089040726441706</v>
+        <v>0.95727494892243714</v>
       </c>
       <c r="AF34" s="0">
         <v>0.75683670353915122</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.539529444759834</v>
+        <v>0.7086346627077651</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.60022863328557119</v>
+        <v>0.81503750307130685</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.62630309718303878</v>
+        <v>0.69498014643330053</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.91001631808605443</v>
+        <v>0.99308581130262841</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.59629918611546939</v>
+        <v>0.60135675391450549</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.93596764179566716</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.6790138571989901</v>
+        <v>0.85129973593252473</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="0">
-        <v>0.75361224509466529</v>
+        <v>0.9569844502889514</v>
       </c>
       <c r="AR37" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0.99308581130262841</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.64205008801762231</v>
+        <v>0.93596764179566716</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.67453149950223756</v>
+        <v>0.82406141285125445</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="0">
-        <v>0.75788405562175254</v>
+        <v>0.87234217228094701</v>
       </c>
       <c r="S39" s="0">
         <v>0</v>
@@ -8348,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="BK40" s="0">
-        <v>0.54071153053718102</v>
+        <v>0.60338539904447352</v>
       </c>
       <c r="BL40" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.50554031107438546</v>
+        <v>0.95432894227415821</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8691,10 +8691,10 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.71947100649082929</v>
+        <v>0.80159999093089684</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.8773164838913603</v>
+        <v>0.97451792750369259</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.82119417521164362</v>
+        <v>0.83199825845872044</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.88683978073756842</v>
+        <v>0.98016649247122212</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.7659875356084942</v>
+        <v>0.94501327038008354</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0.74160058258659545</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.75033978216064856</v>
+        <v>0.88330191370913202</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.65369596296537791</v>
+        <v>0.80162440766931553</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.57997463219629908</v>
+        <v>0.74160058258659545</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.88717357047188661</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.5620778477982491</v>
+        <v>0.62719151064843837</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0.88330191370913202</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.60295095472420823</v>
+        <v>0.88717357047188661</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.51255708624979346</v>
+        <v>0.82060695325882316</v>
       </c>
       <c r="AV46" s="0">
         <v>0.85092807036025464</v>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="0">
-        <v>0.60356196103726067</v>
+        <v>0.95556923059987908</v>
       </c>
       <c r="Z47" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.67103845728573353</v>
+        <v>0.85092807036025464</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.60573562455083296</v>
+        <v>0.98569579890501147</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0.91471381502296212</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.68074859181179881</v>
+        <v>0.90942508791278731</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>0.86442214756197344</v>
+        <v>0.86605297068043374</v>
       </c>
       <c r="L49" s="0">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="0">
-        <v>0.90178719657680206</v>
+        <v>0.97008242590796989</v>
       </c>
       <c r="AH49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.82636828970228426</v>
+        <v>0.91471381502296212</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.75888873299958814</v>
+        <v>0.87060790768248963</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.82825421481567163</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.50579937785464157</v>
+        <v>0.85868966935829583</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>0.79140071613732343</v>
+        <v>0.80617499783607771</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0.87060790768248963</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.66492301174304669</v>
+        <v>0.82825421481567163</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>0.67852218492925342</v>
+        <v>0.69743885197265643</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0.75923846913786019</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.66641464837423747</v>
+        <v>0.9976905682725028</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.64201236521239002</v>
+        <v>0.85397072882578828</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.55779128455211935</v>
+        <v>0.75923846913786019</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="0">
-        <v>0.70790587320848053</v>
+        <v>0.80088419897126584</v>
       </c>
       <c r="G54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0.9976905682725028</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.75769466180636602</v>
+        <v>0.79118611179614695</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.67331970540813624</v>
+        <v>0.93051572118622528</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.68553638067074951</v>
+        <v>0.78067871382143028</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.62887915229024238</v>
+        <v>0.80063866302642395</v>
       </c>
       <c r="BB55" s="0">
         <v>0.93051572118622528</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.61461614631784012</v>
+        <v>0.84801461119113564</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.69532174801690227</v>
+        <v>0.89334517607637332</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>0.65862090116587224</v>
+        <v>0.83277889073136113</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.95724201417119315</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.55386929165470755</v>
+        <v>0.63219420112886293</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11829,16 +11829,16 @@
         <v>0.89334517607637332</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.65722180800904606</v>
+        <v>0.95724201417119315</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.58174655614579862</v>
+        <v>0.62885629241910901</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.50237607893936342</v>
+        <v>0.78198043261685057</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.77850095338552661</v>
+        <v>0.96017874542896609</v>
       </c>
       <c r="BH58" s="0">
         <v>0.73427188967914447</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.66200872590379101</v>
+        <v>0.93912902959109967</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.61050769133654859</v>
+        <v>0.76026961755130085</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>0.53181673114684602</v>
+        <v>0.73427188967914447</v>
       </c>
       <c r="BG60" s="0">
         <v>0.93912902959109967</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.557152215204892</v>
+        <v>0.93828911450507335</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.80214680186817433</v>
+        <v>0.94580235662413548</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.53986133552743576</v>
+        <v>0.73624020049510597</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12880,10 +12880,10 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.74837221168457302</v>
+        <v>0.7691536287592533</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.62456317894659463</v>
+        <v>0.6580045153471592</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="0">
-        <v>0.55003761266804041</v>
+        <v>0.95015413194889353</v>
       </c>
       <c r="I63" s="0">
         <v>0</v>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="S64" s="0">
-        <v>0.71800019286628713</v>
+        <v>0.8214058237552222</v>
       </c>
       <c r="T64" s="0">
         <v>0</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="0">
-        <v>0.51062658403074035</v>
+        <v>0.66847128844484516</v>
       </c>
       <c r="AK64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.6580045153471592</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.65565306474412632</v>
+        <v>0.83133356481944876</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0.58255247068936811</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.80180223012694252</v>
+        <v>0.82864753400048019</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="AA65" s="0">
-        <v>0.5779434163454531</v>
+        <v>0.74568890065259685</v>
       </c>
       <c r="AB65" s="0">
         <v>0</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.53410632995814655</v>
+        <v>0.58255247068936811</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.79794133375091758</v>
+        <v>0.88191663771898055</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="0">
-        <v>0.76196679270757295</v>
+        <v>0.76845118641462717</v>
       </c>
       <c r="AM66" s="0">
         <v>0</v>
@@ -13716,15 +13716,15 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.51226686220541506</v>
+        <v>0.5248892088417938</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.72613656082906719</v>
+        <v>0.97506119232225896</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.74071709824931076</v>
+        <v>0.96072989266345266</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13930,10 +13930,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.77708840239311727</v>
+        <v>0.82465261496778108</v>
       </c>
       <c r="B68" s="0">
-        <v>0.61928782663267867</v>
+        <v>0.79213587400703744</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.97506119232225896</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.6807032390587503</v>
+        <v>0.88107633730149271</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
